--- a/Cicero.xlsx
+++ b/Cicero.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Judith\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{45B4FEFC-F6C6-4852-BE05-C117DE5D6A32}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96A25463-8326-4E10-9921-4EB2669BC589}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="5" xr2:uid="{CB9156C8-32E5-4805-9425-00A03ABD4620}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" firstSheet="1" xr2:uid="{CB9156C8-32E5-4805-9425-00A03ABD4620}"/>
   </bookViews>
   <sheets>
     <sheet name="Main Menu" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Lead input (manual)" sheetId="3" r:id="rId3"/>
     <sheet name="Lead upload" sheetId="4" r:id="rId4"/>
     <sheet name="Current customers" sheetId="5" r:id="rId5"/>
-    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
+    <sheet name="Today's work" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="179017"/>
   <extLst>
@@ -29,9 +29,13 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -39,13 +43,32 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Aharoni"/>
+      <charset val="177"/>
+    </font>
+    <font>
+      <sz val="28"/>
+      <color theme="1"/>
+      <name val="Kunstler Script"/>
+      <family val="4"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -60,8 +83,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -77,6 +102,780 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp6.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp7.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp8.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp9.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>114300</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>95250</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>114300</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>85725</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1038" name="Button 14" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1038"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F23F2A36-86B8-4E73-B2A2-00BEA6BBFFFC}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="182880" bIns="45720" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="r" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Aharoni"/>
+                  <a:cs typeface="Aharoni"/>
+                </a:rPr>
+                <a:t>New Officer   </a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>114300</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>95250</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>114300</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>85725</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1039" name="Button 15" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1039"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{428374E4-4F76-4931-9B5B-565FBA5E78C5}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="182880" bIns="45720" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="r" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Aharoni"/>
+                  <a:cs typeface="Aharoni"/>
+                </a:rPr>
+                <a:t>New Prospect   </a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>114300</xdr:colOff>
+          <xdr:row>16</xdr:row>
+          <xdr:rowOff>95250</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>114300</xdr:colOff>
+          <xdr:row>20</xdr:row>
+          <xdr:rowOff>85725</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1040" name="Button 16" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1040"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41475FE9-AFAC-4A98-AFA9-43153504D698}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="182880" bIns="45720" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="r" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Aharoni"/>
+                  <a:cs typeface="Aharoni"/>
+                </a:rPr>
+                <a:t>Bulk Upload</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>114300</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>95250</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>114300</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>85725</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1041" name="Button 17" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1041"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46219141-3130-4459-A36D-3DFB3BE27C48}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="182880" bIns="45720" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="r" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Aharoni"/>
+                  <a:cs typeface="Aharoni"/>
+                </a:rPr>
+                <a:t>My Customers   </a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>114300</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>95250</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>114300</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>85725</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1042" name="Button 18" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1042"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CDD9309-9EC1-4BF6-A171-BFE71B6B0F08}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="182880" bIns="45720" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="r" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Aharoni"/>
+                  <a:cs typeface="Aharoni"/>
+                </a:rPr>
+                <a:t>Today's work   </a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>114300</xdr:colOff>
+          <xdr:row>16</xdr:row>
+          <xdr:rowOff>95250</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>114300</xdr:colOff>
+          <xdr:row>20</xdr:row>
+          <xdr:rowOff>85725</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1043" name="Button 19" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1043"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A42D696F-28F6-4A8A-9C1B-07C6AAACEEAD}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="182880" bIns="45720" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="r" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Aharoni"/>
+                  <a:cs typeface="Aharoni"/>
+                </a:rPr>
+                <a:t>New Officer   </a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>114300</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>95250</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>15</xdr:col>
+          <xdr:colOff>114300</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>85725</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1044" name="Button 20" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1044"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F261B841-22E3-48C5-B396-E01E58493E51}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="182880" bIns="45720" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="r" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Aharoni"/>
+                  <a:cs typeface="Aharoni"/>
+                </a:rPr>
+                <a:t>New Officer   </a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>114300</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>95250</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>15</xdr:col>
+          <xdr:colOff>114300</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>85725</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1045" name="Button 21" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1045"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FF1AD84-F9D9-4D77-A8F8-AA3886EBE018}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="182880" bIns="45720" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="r" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Aharoni"/>
+                  <a:cs typeface="Aharoni"/>
+                </a:rPr>
+                <a:t>New Officer   </a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>114300</xdr:colOff>
+          <xdr:row>16</xdr:row>
+          <xdr:rowOff>95250</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>15</xdr:col>
+          <xdr:colOff>114300</xdr:colOff>
+          <xdr:row>20</xdr:row>
+          <xdr:rowOff>85725</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1047" name="Button 23" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1047"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1B2A9F1-3F07-4CE1-BD16-EF657E375598}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="182880" bIns="45720" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="r" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Aharoni"/>
+                  <a:cs typeface="Aharoni"/>
+                </a:rPr>
+                <a:t>New Officer   </a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2ABC5A86-0F42-48C9-A51A-8CF1FABD2798}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3714750" y="142875"/>
+          <a:ext cx="733425" cy="733425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>85498</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2933700" cy="933910"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="TextBox 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{579CFBA3-A99A-435F-BED7-3AC07AAFE6E3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3762375" y="85498"/>
+          <a:ext cx="2933700" cy="933910"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="6000">
+              <a:latin typeface="Kunstler Script" panose="030304020206070D0D06" pitchFamily="66" charset="0"/>
+              <a:cs typeface="AngsanaUPC" panose="02020603050405020304" pitchFamily="18" charset="-34"/>
+            </a:rPr>
+            <a:t>Cicero</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -375,17 +1174,231 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CC7B682-B57A-4A3E-A4FA-30F4E5AF3796}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CC7B682-B57A-4A3E-A4FA-30F4E5AF3796}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1"/>
+  <dimension ref="G2"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="7:7" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="G2" s="2"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x14">
+      <controls>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1038" r:id="rId4" name="Button 14">
+              <controlPr defaultSize="0" autoFill="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>114300</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>95250</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>114300</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>85725</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1039" r:id="rId5" name="Button 15">
+              <controlPr defaultSize="0" autoFill="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>114300</xdr:colOff>
+                    <xdr:row>11</xdr:row>
+                    <xdr:rowOff>95250</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>114300</xdr:colOff>
+                    <xdr:row>15</xdr:row>
+                    <xdr:rowOff>85725</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1040" r:id="rId6" name="Button 16">
+              <controlPr defaultSize="0" autoFill="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>114300</xdr:colOff>
+                    <xdr:row>16</xdr:row>
+                    <xdr:rowOff>95250</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>114300</xdr:colOff>
+                    <xdr:row>20</xdr:row>
+                    <xdr:rowOff>85725</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1041" r:id="rId7" name="Button 17">
+              <controlPr defaultSize="0" autoFill="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>114300</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>95250</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>114300</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>85725</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1042" r:id="rId8" name="Button 18">
+              <controlPr defaultSize="0" autoFill="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>114300</xdr:colOff>
+                    <xdr:row>11</xdr:row>
+                    <xdr:rowOff>95250</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>114300</xdr:colOff>
+                    <xdr:row>15</xdr:row>
+                    <xdr:rowOff>85725</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1043" r:id="rId9" name="Button 19">
+              <controlPr defaultSize="0" autoFill="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>114300</xdr:colOff>
+                    <xdr:row>16</xdr:row>
+                    <xdr:rowOff>95250</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>114300</xdr:colOff>
+                    <xdr:row>20</xdr:row>
+                    <xdr:rowOff>85725</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1044" r:id="rId10" name="Button 20">
+              <controlPr defaultSize="0" autoFill="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>11</xdr:col>
+                    <xdr:colOff>114300</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>95250</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>15</xdr:col>
+                    <xdr:colOff>114300</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>85725</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1045" r:id="rId11" name="Button 21">
+              <controlPr defaultSize="0" autoFill="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>11</xdr:col>
+                    <xdr:colOff>114300</xdr:colOff>
+                    <xdr:row>11</xdr:row>
+                    <xdr:rowOff>95250</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>15</xdr:col>
+                    <xdr:colOff>114300</xdr:colOff>
+                    <xdr:row>15</xdr:row>
+                    <xdr:rowOff>85725</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1047" r:id="rId12" name="Button 23">
+              <controlPr defaultSize="0" autoFill="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>11</xdr:col>
+                    <xdr:colOff>114300</xdr:colOff>
+                    <xdr:row>16</xdr:row>
+                    <xdr:rowOff>95250</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>15</xdr:col>
+                    <xdr:colOff>114300</xdr:colOff>
+                    <xdr:row>20</xdr:row>
+                    <xdr:rowOff>85725</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+      </controls>
+    </mc:Choice>
+  </mc:AlternateContent>
 </worksheet>
 </file>
 
@@ -446,7 +1459,7 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
